--- a/user_centered_design_documentation/user-stories.xlsx
+++ b/user_centered_design_documentation/user-stories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leesihoney/Downloads/Supporting Files/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leesihoney/Documents/CMU/Spring 2020/67-250/Web Development Project/webdevproject-siheonl/user_centered_design_documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AFA600-577A-0B47-8636-71067E724F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FC276A-C5F2-1F4E-BE0C-9EC4730ACBA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1400" yWindow="2640" windowWidth="25040" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25040" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
